--- a/biology/Botanique/Millettia_bipindensis/Millettia_bipindensis.xlsx
+++ b/biology/Botanique/Millettia_bipindensis/Millettia_bipindensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Millettia bipindensis Harms [2] est une espèce d'arbres de la famille des Fabaceae, observée au sud du Cameroun et au nord du Gabon.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Millettia bipindensis Harms  est une espèce d'arbres de la famille des Fabaceae, observée au sud du Cameroun et au nord du Gabon.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épithète spécifique fait référence à Bipindi, une localité au sud du Cameroun.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liane ligneuse (ou arbrisseau[3]) possède des tiges aux branches rougeâtres à noirâtres pouvant atteindre 15 centimètres de diamètre. Ses branches sont fortement pubescentes voire glabres[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liane ligneuse (ou arbrisseau) possède des tiges aux branches rougeâtres à noirâtres pouvant atteindre 15 centimètres de diamètre. Ses branches sont fortement pubescentes voire glabres. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se développe en forêt tropicale, souvent le long des cours d'eau, à basse et moyenne altitude[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se développe en forêt tropicale, souvent le long des cours d'eau, à basse et moyenne altitude.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce décrite par Harms en 1902 a été découverte en 1900 par Georg August Zenker au bord de la Lokoundjé[5]. En 1964 elle a été observée au bord du Nyong, à 65 km d'Eséka. On l'identifiée également au nord du Gabon[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce décrite par Harms en 1902 a été découverte en 1900 par Georg August Zenker au bord de la Lokoundjé. En 1964 elle a été observée au bord du Nyong, à 65 km d'Eséka. On l'identifiée également au nord du Gabon.
 </t>
         </is>
       </c>
